--- a/WebContent/medical dataset.xlsx
+++ b/WebContent/medical dataset.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shyam\git\dm12\DM12\WebContent\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51130516-3A7B-44E4-91A3-DB16B233C6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,9 +34,6 @@
   </si>
   <si>
     <t>Zip Code</t>
-  </si>
-  <si>
-    <t>Deseas</t>
   </si>
   <si>
     <t>Dyspepsia</t>
@@ -82,11 +80,14 @@
   <si>
     <t>PERSONAL ELECTRONIC HEALTH RECORD</t>
   </si>
+  <si>
+    <t>Disease</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -438,29 +439,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" customWidth="1"/>
-    <col min="3" max="3" width="49.28515625" customWidth="1"/>
-    <col min="4" max="4" width="54.28515625" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" customWidth="1"/>
+    <col min="2" max="2" width="38.453125" customWidth="1"/>
+    <col min="3" max="3" width="49.26953125" customWidth="1"/>
+    <col min="4" max="4" width="54.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.6">
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -471,12 +472,12 @@
         <v>2</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4">
         <v>56</v>
@@ -485,12 +486,12 @@
         <v>200123</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4">
         <v>87</v>
@@ -499,12 +500,12 @@
         <v>200124</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4">
         <v>65</v>
@@ -513,12 +514,12 @@
         <v>200125</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4">
         <v>58</v>
@@ -527,12 +528,12 @@
         <v>200126</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4">
         <v>39</v>
@@ -541,12 +542,12 @@
         <v>200127</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="4">
         <v>45</v>
@@ -555,12 +556,12 @@
         <v>200128</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="4">
         <v>63</v>
@@ -569,12 +570,12 @@
         <v>200129</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="4">
         <v>52</v>
@@ -583,12 +584,12 @@
         <v>200130</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="4">
         <v>36</v>
@@ -597,12 +598,12 @@
         <v>200131</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="4">
         <v>85</v>
@@ -611,12 +612,12 @@
         <v>200132</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="4">
         <v>65</v>
@@ -625,12 +626,12 @@
         <v>200133</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="4">
         <v>45</v>
@@ -639,12 +640,12 @@
         <v>200134</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="4">
         <v>41</v>
@@ -653,12 +654,12 @@
         <v>200135</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4">
         <v>69</v>
@@ -667,12 +668,12 @@
         <v>200136</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4">
         <v>44</v>
@@ -681,12 +682,12 @@
         <v>200137</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="4">
         <v>25</v>
@@ -695,12 +696,12 @@
         <v>200138</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="4">
         <v>52</v>
@@ -709,12 +710,12 @@
         <v>200139</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4">
         <v>15</v>
@@ -723,12 +724,12 @@
         <v>200140</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="4">
         <v>46</v>
@@ -737,12 +738,12 @@
         <v>200141</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="4">
         <v>63</v>
@@ -751,12 +752,12 @@
         <v>200142</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="4">
         <v>78</v>
@@ -765,12 +766,12 @@
         <v>200143</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" s="4">
         <v>89</v>
@@ -779,12 +780,12 @@
         <v>200144</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="4">
         <v>54</v>
@@ -793,12 +794,12 @@
         <v>200145</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" s="4">
         <v>21</v>
@@ -807,12 +808,12 @@
         <v>200146</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A27" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" s="4">
         <v>56</v>
@@ -821,12 +822,12 @@
         <v>200147</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" s="4">
         <v>78</v>
@@ -835,12 +836,12 @@
         <v>200148</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29" s="4">
         <v>66</v>
@@ -849,12 +850,12 @@
         <v>200149</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" s="4">
         <v>85</v>
@@ -863,12 +864,12 @@
         <v>200150</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" s="4">
         <v>96</v>
@@ -877,12 +878,12 @@
         <v>200151</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32" s="4">
         <v>45</v>
@@ -891,12 +892,12 @@
         <v>200152</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A33" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33" s="4">
         <v>78</v>
@@ -905,12 +906,12 @@
         <v>200153</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A34" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" s="4">
         <v>84</v>
@@ -919,12 +920,12 @@
         <v>200154</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A35" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35" s="4">
         <v>98</v>
@@ -933,12 +934,12 @@
         <v>200155</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A36" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36" s="4">
         <v>78</v>
@@ -947,12 +948,12 @@
         <v>200156</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A37" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B37" s="4">
         <v>77</v>
@@ -961,12 +962,12 @@
         <v>200157</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A38" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B38" s="4">
         <v>44</v>
@@ -975,12 +976,12 @@
         <v>200158</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A39" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39" s="4">
         <v>47</v>
@@ -989,12 +990,12 @@
         <v>200159</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A40" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B40" s="4">
         <v>58</v>
@@ -1003,12 +1004,12 @@
         <v>200160</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A41" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B41" s="4">
         <v>92</v>
@@ -1017,12 +1018,12 @@
         <v>200161</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A42" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B42" s="4">
         <v>32</v>
@@ -1031,12 +1032,12 @@
         <v>200162</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A43" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B43" s="4">
         <v>66</v>
@@ -1045,12 +1046,12 @@
         <v>200163</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A44" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B44" s="4">
         <v>37</v>
@@ -1059,12 +1060,12 @@
         <v>200164</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A45" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45" s="4">
         <v>59</v>
@@ -1073,12 +1074,12 @@
         <v>200165</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A46" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B46" s="4">
         <v>47</v>
@@ -1087,12 +1088,12 @@
         <v>200166</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A47" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B47" s="4">
         <v>85</v>
@@ -1101,12 +1102,12 @@
         <v>200167</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A48" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B48" s="4">
         <v>82</v>
@@ -1115,12 +1116,12 @@
         <v>200168</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A49" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B49" s="4">
         <v>69</v>
@@ -1129,12 +1130,12 @@
         <v>200169</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A50" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B50" s="4">
         <v>47</v>
@@ -1143,12 +1144,12 @@
         <v>200170</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A51" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B51" s="4">
         <v>44</v>
@@ -1157,12 +1158,12 @@
         <v>200171</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A52" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B52" s="4">
         <v>77</v>
@@ -1171,12 +1172,12 @@
         <v>200172</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A53" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B53" s="4">
         <v>57</v>
@@ -1185,12 +1186,12 @@
         <v>200173</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A54" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B54" s="4">
         <v>89</v>
@@ -1199,12 +1200,12 @@
         <v>200174</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A55" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B55" s="4">
         <v>65</v>
@@ -1213,12 +1214,12 @@
         <v>200175</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A56" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B56" s="4">
         <v>48</v>
@@ -1227,12 +1228,12 @@
         <v>200176</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A57" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B57" s="4">
         <v>65</v>
@@ -1241,12 +1242,12 @@
         <v>200177</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A58" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B58" s="4">
         <v>45</v>
@@ -1255,12 +1256,12 @@
         <v>200178</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A59" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B59" s="4">
         <v>44</v>
@@ -1269,12 +1270,12 @@
         <v>200179</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A60" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B60" s="4">
         <v>77</v>
@@ -1283,12 +1284,12 @@
         <v>200180</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A61" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B61" s="4">
         <v>85</v>
@@ -1297,12 +1298,12 @@
         <v>200181</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A62" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B62" s="4">
         <v>96</v>
@@ -1311,12 +1312,12 @@
         <v>200182</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A63" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B63" s="4">
         <v>74</v>
@@ -1325,12 +1326,12 @@
         <v>200183</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A64" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B64" s="4">
         <v>45</v>
@@ -1339,12 +1340,12 @@
         <v>200184</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A65" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B65" s="4">
         <v>36</v>
@@ -1353,12 +1354,12 @@
         <v>200185</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A66" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B66" s="4">
         <v>88</v>
@@ -1367,12 +1368,12 @@
         <v>200186</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A67" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B67" s="4">
         <v>45</v>
@@ -1381,12 +1382,12 @@
         <v>200187</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A68" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B68" s="4">
         <v>74</v>
@@ -1395,12 +1396,12 @@
         <v>200188</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A69" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B69" s="4">
         <v>74</v>
@@ -1409,12 +1410,12 @@
         <v>200189</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A70" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B70" s="4">
         <v>89</v>
@@ -1423,12 +1424,12 @@
         <v>200190</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A71" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B71" s="4">
         <v>69</v>
@@ -1437,12 +1438,12 @@
         <v>200191</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A72" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B72" s="4">
         <v>92</v>
@@ -1451,12 +1452,12 @@
         <v>200192</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A73" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B73" s="4">
         <v>78</v>
@@ -1465,12 +1466,12 @@
         <v>200193</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A74" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B74" s="4">
         <v>87</v>
@@ -1479,12 +1480,12 @@
         <v>200194</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A75" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B75" s="4">
         <v>47</v>
@@ -1493,12 +1494,12 @@
         <v>200195</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A76" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B76" s="4">
         <v>14</v>
@@ -1507,12 +1508,12 @@
         <v>200196</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A77" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B77" s="4">
         <v>45</v>
@@ -1521,12 +1522,12 @@
         <v>200197</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A78" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B78" s="4">
         <v>78</v>
@@ -1535,12 +1536,12 @@
         <v>200198</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A79" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B79" s="4">
         <v>98</v>
@@ -1549,12 +1550,12 @@
         <v>200199</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A80" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B80" s="4">
         <v>74</v>
@@ -1563,12 +1564,12 @@
         <v>200200</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A81" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B81" s="4">
         <v>47</v>
@@ -1577,12 +1578,12 @@
         <v>200201</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A82" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B82" s="4">
         <v>45</v>
@@ -1591,12 +1592,12 @@
         <v>200202</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A83" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B83" s="4">
         <v>65</v>
@@ -1605,12 +1606,12 @@
         <v>200203</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A84" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B84" s="4">
         <v>88</v>
@@ -1619,12 +1620,12 @@
         <v>200204</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A85" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B85" s="4">
         <v>29</v>
@@ -1633,12 +1634,12 @@
         <v>200205</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A86" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B86" s="4">
         <v>77</v>
@@ -1647,12 +1648,12 @@
         <v>200206</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A87" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B87" s="4">
         <v>45</v>
@@ -1661,12 +1662,12 @@
         <v>200207</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A88" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B88" s="4">
         <v>87</v>
@@ -1675,12 +1676,12 @@
         <v>200208</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A89" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B89" s="4">
         <v>74</v>
@@ -1689,12 +1690,12 @@
         <v>200209</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A90" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B90" s="4">
         <v>48</v>
@@ -1703,12 +1704,12 @@
         <v>200210</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A91" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B91" s="4">
         <v>36</v>
@@ -1717,12 +1718,12 @@
         <v>200211</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A92" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B92" s="4">
         <v>96</v>
@@ -1731,12 +1732,12 @@
         <v>200212</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A93" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B93" s="4">
         <v>39</v>
@@ -1745,12 +1746,12 @@
         <v>200213</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A94" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B94" s="4">
         <v>29</v>
@@ -1759,12 +1760,12 @@
         <v>200214</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A95" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B95" s="4">
         <v>33</v>
@@ -1773,12 +1774,12 @@
         <v>200215</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A96" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B96" s="4">
         <v>35</v>
@@ -1787,12 +1788,12 @@
         <v>200216</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A97" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B97" s="4">
         <v>38</v>
@@ -1801,12 +1802,12 @@
         <v>200217</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A98" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B98" s="4">
         <v>96</v>
@@ -1815,12 +1816,12 @@
         <v>200218</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A99" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B99" s="4">
         <v>78</v>
@@ -1829,12 +1830,12 @@
         <v>200219</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A100" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B100" s="4">
         <v>47</v>
@@ -1843,10 +1844,10 @@
         <v>200220</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
